--- a/Data/Output/2022-06-06/Relatorio_Analitico.xlsx
+++ b/Data/Output/2022-06-06/Relatorio_Analitico.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <x:si>
     <x:t>RELATÓRIO ANALÍTICO DE EXECUÇÃO DO ROBÔ</x:t>
   </x:si>
@@ -228,6 +228,792 @@
   </x:si>
   <x:si>
     <x:t>(24) 99832-3376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:52:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:52:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:52:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:52:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:53:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2565333 - THIAGO SEIXAS DE OLIVEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(22) 99251-6319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2603160 - CAROLINE DE ARAUJO BARBOSA DE ANDRADE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99316-1115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>828503 - MATEUS HENRIQUE DE OLIVEIRA VITAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99977-5005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2709398 - WESLEY LEANDRO FERREIRA DE SOUZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99851-0616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:54:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2749538 - GUILHERME HENRIQUE DOS SANTOS </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(11) 97317-1827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2729795 - JUSSARA DA SILVA MARINHO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99963-6476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2729784 - MICAEL SEBASTIAN MARINHO SAMPAIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2055182 - RAPHAEL SPENCER ALENCAR DE SOUZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99812-4829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2496649 - IRAIL FILIPE DO CARMO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99834-1205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2628087 - MARIA EDUARDA DE OLIVEIRA CASIMIRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99860-6907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2550245 - DAVI GONCALVES DE OLIVEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2747410 - LUIZ FILIPE ALVES DE SOUSA CARLOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99849-5511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>994819 - ANA CARLA DA FONSECA JOAQUIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99875-9123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:55:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2539226 - JOAO VITOR ROSENDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99859-4717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2477501 - HELTON FELIPE DE OLIVEIRA ALVES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99884-4060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">680261 - MAIRA BIANCA DA SILVA NUNES </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99254-0674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2657502 - poliana da silva ferreira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99885-0720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2449199 - BENEDITA MARIA DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1830434 - JACKELYNE CAMPOS COUTINHO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99999-0820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2639917 - LUCAS MATTEUS SANTOS FERNANDES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99819-2644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2311626 - ANDERSON JESUS DA SILVA MIRANDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99847-4694</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319418 - ALIANDRA FIRMINO DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99845-4648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:56:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>929456 - LUIS PAULO DA SILVA CONCEICAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99272-3277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2675595 - ARTHUR ANDRE BARBARA FREITAS </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99931-8626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1951123 - ANA CAROLINA DA SILVA LEITE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99283-4062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2489469 - LARISSA GONÇALVES GOMES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99817-6955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SystemException</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>944769 - VICTOR DE CASTRO DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99918-4458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2509063 - ANGELA DE ANDRADE ALVES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99971-9085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1113285 - THALISON FAUSTO MATTIAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99906-4876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2505725 - CARLOS AUGUSTO DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(12) 99741-7958</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:57:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2719151 - ISAQUE RIBEIRO ALBURQUEQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99856-7178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2341123 - MANOELA DOS SANTOS COSTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99927-2321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2165397 - MARIA FERNANDA DOS SANTOS COSTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2749450 - JESSICA RUTH NASCIMENTO SOUZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99992-4842</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1364824 - CLAUDIA HELENI DA SILVA MOREIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99962-7746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2777651 - CARMEM DE MOURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99906-4976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2749205 - KLAIDY SANTOS DE OLIVEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99864-4697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2596716 - JAQUES ALVES DA CONCEICAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99854-3571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2797031 - ANA CLARA AVELAR DE SOUSA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99999-0636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2776302 - Julia cristina da silva Costa </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99918-7741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:58:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2747745 - sara sophia rosa de almeida </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99976-2104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2656623 - henrique araujo brasil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99925-3672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1900782 - JOAO PAULO MOREIRA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99884-4246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2697600 - DIOGO RAMOS HIPOLITO DA CUNHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99307-2930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2693519 - VITORIA LOURDES AGUIAR BRANDAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99315-1125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2788049 - MARIA DE FATIMA DA COSTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 97402-9863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2437693 - GABRIEL CAROLINO NARCISO BRAGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99924-2490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2632010 - Niesley Rafael Marques Gonçalves </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99937-2903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>613408 - RODRIGO ALMEIDA DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99811-6898</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 19:59:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2762582 - JOSE CARLOS DA SILVA ZACHARIAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 9932-4087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1573118 - MIRIAM BARBOSA DOMINGOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99858-2218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298526 - OSMAR FERNANDO DE PAIVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99250-2864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2600956 - AIRTON CESAR VERGINO DE ALMEIDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(21) 98179-6492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1484171 - MARIA EDUARDA DE MAGALHAES PEREIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99825-9859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2708033 - CAROLINE DA SILVA SANTOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(33) 99970-3616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2712607 - LUIZ PAULO DE JESUS CLEMENTINO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99272-7935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374229 - DAVI CESAR DE ABREU MEDEIROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99962-1245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2491267 - HUDSON SILVA BARBOZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(22) 98120-1895</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:00:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>869189 - LUIZ FELIPE VALENTIM FLORINDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99395-4336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1963379 - LUCAS EMILIO EMERENCIANO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99851-3342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">839909 - GUILHERME FIRMINO INACIO </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99882-0119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2719088 - OHANA LOPES CARDOSO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(87) 99939-3754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2263235 - JOSE RAFAEL DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(32) 98424-2607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2320237 - RHAYLLA FERREIRA DE SOUZA SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99872-6296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2346160 - DAIANE IARA DE ALMEIDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99999-1469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>839460 - LEANDRO MATHIAS PEREIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99933-7799</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2735334 - LUIZ EDUARDO RODRIGUES DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 98158-5105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:01:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2604990 - MARIA EDUARDA GOMES CRUZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99926-9670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2413558 - CAIO MARCIANO SANTOS LOPES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99308-6405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1642970 - JOAO PEDRO GONCALVES REIS </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 98188-4390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2708317 - CAROLINA PEREIRA CABRAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99323-5547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2400569 - RYAN PABLO COSTA DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99872-0278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2448609 - RAFAELLY CAROLINE DE SOUZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99861-3658</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1580103 - RENATA MATIAS DA SILVA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99969-9293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1529136 - SUELLER CARVALHO NOGUEIRA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99920-9372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2355001 - TIAGO LUIS DE LORENA TAVARES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99932-0328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2604996 - MARIANA DUVALE MARCIANO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99821-2307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:02:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>842506 - ANA CAROLINA HARZKE SEVERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 97400-2186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:03:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2354978 - ELAINE DE PAULA TEIXEIRA PEREIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99969-2976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:03:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>463912 - LEANDRO BATISTA DE OLIVEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99256-5535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:03:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>885087 - JOSE LUCAS ANDRE RODRIGUES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99266-6142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06/06/2022 20:03:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2064332 - JEFFERSON DE SOUZA MACHADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99944-3141</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -366,8 +1152,5462 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="344">
+  <x:cellStyleXfs count="2162">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -2235,711 +8475,1721 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A25" s="13" t="s"/>
-      <x:c r="B25" s="14" t="s"/>
-      <x:c r="C25" s="17" t="s"/>
-      <x:c r="D25" s="17" t="s"/>
-      <x:c r="E25" s="17" t="s"/>
+      <x:c r="A25" s="13" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B25" s="14" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C25" s="17" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D25" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E25" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="26" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A26" s="17" t="s"/>
-      <x:c r="B26" s="17" t="s"/>
-      <x:c r="C26" s="17" t="s"/>
-      <x:c r="D26" s="17" t="s"/>
-      <x:c r="E26" s="17" t="s"/>
+      <x:c r="A26" s="17" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B26" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C26" s="17" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D26" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E26" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A27" s="13" t="s"/>
-      <x:c r="B27" s="13" t="s"/>
-      <x:c r="C27" s="17" t="s"/>
-      <x:c r="D27" s="17" t="s"/>
-      <x:c r="E27" s="17" t="s"/>
+      <x:c r="A27" s="13" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B27" s="13" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C27" s="17" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D27" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E27" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A28" s="17" t="s"/>
-      <x:c r="B28" s="17" t="s"/>
-      <x:c r="C28" s="17" t="s"/>
-      <x:c r="D28" s="17" t="s"/>
-      <x:c r="E28" s="17" t="s"/>
+      <x:c r="A28" s="17" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B28" s="17" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C28" s="17" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D28" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E28" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A29" s="13" t="s"/>
-      <x:c r="B29" s="13" t="s"/>
-      <x:c r="C29" s="17" t="s"/>
-      <x:c r="D29" s="17" t="s"/>
-      <x:c r="E29" s="17" t="s"/>
+      <x:c r="A29" s="13" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B29" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C29" s="17" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D29" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E29" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A30" s="17" t="s"/>
-      <x:c r="B30" s="17" t="s"/>
-      <x:c r="C30" s="17" t="s"/>
-      <x:c r="D30" s="17" t="s"/>
-      <x:c r="E30" s="17" t="s"/>
+      <x:c r="A30" s="17" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B30" s="17" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C30" s="17" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D30" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E30" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A31" s="13" t="s"/>
-      <x:c r="B31" s="13" t="s"/>
-      <x:c r="C31" s="17" t="s"/>
-      <x:c r="D31" s="17" t="s"/>
-      <x:c r="E31" s="17" t="s"/>
+      <x:c r="A31" s="13" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B31" s="13" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C31" s="17" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D31" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E31" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="32" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A32" s="17" t="s"/>
-      <x:c r="B32" s="17" t="s"/>
-      <x:c r="C32" s="17" t="s"/>
-      <x:c r="D32" s="17" t="s"/>
-      <x:c r="E32" s="17" t="s"/>
+      <x:c r="A32" s="17" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B32" s="17" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C32" s="17" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D32" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E32" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="33" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A33" s="13" t="s"/>
-      <x:c r="B33" s="13" t="s"/>
-      <x:c r="C33" s="17" t="s"/>
-      <x:c r="D33" s="17" t="s"/>
-      <x:c r="E33" s="17" t="s"/>
+      <x:c r="A33" s="13" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B33" s="13" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C33" s="17" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D33" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E33" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="34" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A34" s="17" t="s"/>
-      <x:c r="B34" s="17" t="s"/>
-      <x:c r="C34" s="17" t="s"/>
-      <x:c r="D34" s="17" t="s"/>
-      <x:c r="E34" s="17" t="s"/>
+      <x:c r="A34" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B34" s="17" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C34" s="17" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D34" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E34" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="35" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A35" s="13" t="s"/>
-      <x:c r="B35" s="13" t="s"/>
-      <x:c r="C35" s="17" t="s"/>
-      <x:c r="D35" s="17" t="s"/>
-      <x:c r="E35" s="17" t="s"/>
+      <x:c r="A35" s="13" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B35" s="13" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C35" s="17" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D35" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E35" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="36" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A36" s="17" t="s"/>
-      <x:c r="B36" s="17" t="s"/>
-      <x:c r="C36" s="17" t="s"/>
-      <x:c r="D36" s="17" t="s"/>
-      <x:c r="E36" s="17" t="s"/>
+      <x:c r="A36" s="17" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B36" s="17" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C36" s="17" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D36" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E36" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="37" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A37" s="13" t="s"/>
-      <x:c r="B37" s="13" t="s"/>
-      <x:c r="C37" s="17" t="s"/>
-      <x:c r="D37" s="17" t="s"/>
-      <x:c r="E37" s="17" t="s"/>
+      <x:c r="A37" s="13" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B37" s="13" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C37" s="17" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D37" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E37" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="38" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A38" s="17" t="s"/>
-      <x:c r="B38" s="17" t="s"/>
-      <x:c r="C38" s="17" t="s"/>
-      <x:c r="D38" s="17" t="s"/>
-      <x:c r="E38" s="17" t="s"/>
+      <x:c r="A38" s="17" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B38" s="17" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C38" s="17" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D38" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E38" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="39" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A39" s="13" t="s"/>
-      <x:c r="B39" s="13" t="s"/>
-      <x:c r="C39" s="17" t="s"/>
-      <x:c r="D39" s="17" t="s"/>
-      <x:c r="E39" s="17" t="s"/>
+      <x:c r="A39" s="13" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B39" s="13" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C39" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D39" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E39" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="40" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A40" s="17" t="s"/>
-      <x:c r="B40" s="17" t="s"/>
-      <x:c r="C40" s="17" t="s"/>
-      <x:c r="D40" s="17" t="s"/>
-      <x:c r="E40" s="17" t="s"/>
+      <x:c r="A40" s="17" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B40" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C40" s="17" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D40" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E40" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="41" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A41" s="13" t="s"/>
-      <x:c r="B41" s="13" t="s"/>
-      <x:c r="C41" s="17" t="s"/>
-      <x:c r="D41" s="17" t="s"/>
-      <x:c r="E41" s="17" t="s"/>
+      <x:c r="A41" s="13" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B41" s="13" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C41" s="17" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D41" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E41" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="42" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A42" s="17" t="s"/>
-      <x:c r="B42" s="17" t="s"/>
-      <x:c r="C42" s="17" t="s"/>
-      <x:c r="D42" s="17" t="s"/>
-      <x:c r="E42" s="17" t="s"/>
+      <x:c r="A42" s="17" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B42" s="17" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C42" s="17" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D42" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E42" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="43" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A43" s="13" t="s"/>
-      <x:c r="B43" s="13" t="s"/>
-      <x:c r="C43" s="17" t="s"/>
-      <x:c r="D43" s="17" t="s"/>
-      <x:c r="E43" s="17" t="s"/>
+      <x:c r="A43" s="13" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B43" s="13" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C43" s="17" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D43" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E43" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="44" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A44" s="17" t="s"/>
-      <x:c r="B44" s="17" t="s"/>
-      <x:c r="C44" s="17" t="s"/>
-      <x:c r="D44" s="17" t="s"/>
-      <x:c r="E44" s="17" t="s"/>
+      <x:c r="A44" s="17" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B44" s="17" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C44" s="17" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D44" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E44" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="45" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A45" s="13" t="s"/>
-      <x:c r="B45" s="13" t="s"/>
-      <x:c r="C45" s="17" t="s"/>
-      <x:c r="D45" s="17" t="s"/>
-      <x:c r="E45" s="17" t="s"/>
+      <x:c r="A45" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B45" s="13" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C45" s="17" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D45" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E45" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="46" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A46" s="17" t="s"/>
-      <x:c r="B46" s="17" t="s"/>
-      <x:c r="C46" s="17" t="s"/>
-      <x:c r="D46" s="17" t="s"/>
-      <x:c r="E46" s="17" t="s"/>
+      <x:c r="A46" s="17" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B46" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C46" s="17" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D46" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E46" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="47" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A47" s="13" t="s"/>
-      <x:c r="B47" s="13" t="s"/>
-      <x:c r="C47" s="17" t="s"/>
-      <x:c r="D47" s="17" t="s"/>
-      <x:c r="E47" s="17" t="s"/>
+      <x:c r="A47" s="13" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B47" s="13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C47" s="17" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D47" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E47" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="48" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A48" s="17" t="s"/>
-      <x:c r="B48" s="17" t="s"/>
-      <x:c r="C48" s="17" t="s"/>
-      <x:c r="D48" s="17" t="s"/>
-      <x:c r="E48" s="17" t="s"/>
+      <x:c r="A48" s="17" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B48" s="17" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C48" s="17" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D48" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E48" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="49" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A49" s="13" t="s"/>
-      <x:c r="B49" s="13" t="s"/>
-      <x:c r="C49" s="17" t="s"/>
-      <x:c r="D49" s="17" t="s"/>
-      <x:c r="E49" s="17" t="s"/>
+      <x:c r="A49" s="13" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B49" s="13" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C49" s="17" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D49" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E49" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="50" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A50" s="17" t="s"/>
-      <x:c r="B50" s="17" t="s"/>
-      <x:c r="C50" s="17" t="s"/>
-      <x:c r="D50" s="17" t="s"/>
-      <x:c r="E50" s="17" t="s"/>
+      <x:c r="A50" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B50" s="17" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C50" s="17" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D50" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E50" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="51" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A51" s="13" t="s"/>
-      <x:c r="B51" s="13" t="s"/>
-      <x:c r="C51" s="17" t="s"/>
-      <x:c r="D51" s="17" t="s"/>
-      <x:c r="E51" s="17" t="s"/>
+      <x:c r="A51" s="13" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B51" s="13" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C51" s="17" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D51" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E51" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="52" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A52" s="17" t="s"/>
-      <x:c r="B52" s="17" t="s"/>
-      <x:c r="C52" s="17" t="s"/>
-      <x:c r="D52" s="17" t="s"/>
-      <x:c r="E52" s="17" t="s"/>
+      <x:c r="A52" s="17" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B52" s="17" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C52" s="17" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D52" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E52" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="53" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A53" s="13" t="s"/>
-      <x:c r="B53" s="13" t="s"/>
-      <x:c r="C53" s="17" t="s"/>
-      <x:c r="D53" s="17" t="s"/>
-      <x:c r="E53" s="17" t="s"/>
+      <x:c r="A53" s="13" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B53" s="13" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C53" s="17" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D53" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E53" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="54" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A54" s="17" t="s"/>
-      <x:c r="B54" s="17" t="s"/>
-      <x:c r="C54" s="17" t="s"/>
-      <x:c r="D54" s="17" t="s"/>
-      <x:c r="E54" s="17" t="s"/>
+      <x:c r="A54" s="17" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B54" s="17" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C54" s="17" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D54" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E54" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="55" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A55" s="13" t="s"/>
-      <x:c r="B55" s="13" t="s"/>
-      <x:c r="C55" s="17" t="s"/>
-      <x:c r="D55" s="17" t="s"/>
-      <x:c r="E55" s="17" t="s"/>
+      <x:c r="A55" s="13" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B55" s="13" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C55" s="17" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D55" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E55" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="56" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A56" s="17" t="s"/>
-      <x:c r="B56" s="17" t="s"/>
-      <x:c r="C56" s="17" t="s"/>
-      <x:c r="D56" s="17" t="s"/>
-      <x:c r="E56" s="17" t="s"/>
+      <x:c r="A56" s="17" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B56" s="17" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C56" s="17" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D56" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E56" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="57" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A57" s="13" t="s"/>
-      <x:c r="B57" s="13" t="s"/>
-      <x:c r="C57" s="17" t="s"/>
-      <x:c r="D57" s="17" t="s"/>
-      <x:c r="E57" s="17" t="s"/>
+      <x:c r="A57" s="13" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B57" s="13" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C57" s="17" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D57" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E57" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="58" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A58" s="17" t="s"/>
-      <x:c r="B58" s="17" t="s"/>
-      <x:c r="C58" s="17" t="s"/>
-      <x:c r="D58" s="17" t="s"/>
-      <x:c r="E58" s="17" t="s"/>
+      <x:c r="A58" s="17" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B58" s="17" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C58" s="17" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D58" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E58" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="59" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A59" s="13" t="s"/>
-      <x:c r="B59" s="13" t="s"/>
-      <x:c r="C59" s="17" t="s"/>
-      <x:c r="D59" s="17" t="s"/>
-      <x:c r="E59" s="17" t="s"/>
+      <x:c r="A59" s="13" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B59" s="13" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C59" s="17" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D59" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E59" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="60" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A60" s="17" t="s"/>
-      <x:c r="B60" s="17" t="s"/>
-      <x:c r="C60" s="17" t="s"/>
-      <x:c r="D60" s="17" t="s"/>
-      <x:c r="E60" s="17" t="s"/>
+      <x:c r="A60" s="17" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B60" s="17" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C60" s="17" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D60" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E60" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="61" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A61" s="13" t="s"/>
-      <x:c r="B61" s="13" t="s"/>
-      <x:c r="C61" s="17" t="s"/>
-      <x:c r="D61" s="17" t="s"/>
-      <x:c r="E61" s="17" t="s"/>
+      <x:c r="A61" s="13" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B61" s="13" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C61" s="17" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D61" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E61" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="62" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A62" s="17" t="s"/>
-      <x:c r="B62" s="17" t="s"/>
-      <x:c r="C62" s="17" t="s"/>
-      <x:c r="D62" s="17" t="s"/>
-      <x:c r="E62" s="17" t="s"/>
+      <x:c r="A62" s="17" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B62" s="17" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C62" s="17" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D62" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E62" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="63" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A63" s="13" t="s"/>
-      <x:c r="B63" s="13" t="s"/>
-      <x:c r="C63" s="17" t="s"/>
-      <x:c r="D63" s="17" t="s"/>
-      <x:c r="E63" s="17" t="s"/>
+      <x:c r="A63" s="13" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B63" s="13" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C63" s="17" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D63" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E63" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="64" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A64" s="17" t="s"/>
-      <x:c r="B64" s="17" t="s"/>
-      <x:c r="C64" s="17" t="s"/>
-      <x:c r="D64" s="17" t="s"/>
-      <x:c r="E64" s="17" t="s"/>
+      <x:c r="A64" s="17" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B64" s="17" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C64" s="17" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D64" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E64" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="65" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A65" s="13" t="s"/>
-      <x:c r="B65" s="13" t="s"/>
-      <x:c r="C65" s="17" t="s"/>
-      <x:c r="D65" s="17" t="s"/>
-      <x:c r="E65" s="17" t="s"/>
+      <x:c r="A65" s="13" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B65" s="13" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C65" s="17" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D65" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E65" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="66" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A66" s="17" t="s"/>
-      <x:c r="B66" s="17" t="s"/>
-      <x:c r="C66" s="17" t="s"/>
-      <x:c r="D66" s="17" t="s"/>
-      <x:c r="E66" s="17" t="s"/>
+      <x:c r="A66" s="17" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B66" s="17" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C66" s="17" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D66" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E66" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="67" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A67" s="13" t="s"/>
-      <x:c r="B67" s="13" t="s"/>
-      <x:c r="C67" s="17" t="s"/>
-      <x:c r="D67" s="17" t="s"/>
-      <x:c r="E67" s="17" t="s"/>
+      <x:c r="A67" s="13" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B67" s="13" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C67" s="17" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D67" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E67" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="68" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A68" s="17" t="s"/>
-      <x:c r="B68" s="17" t="s"/>
-      <x:c r="C68" s="17" t="s"/>
-      <x:c r="D68" s="17" t="s"/>
-      <x:c r="E68" s="17" t="s"/>
+      <x:c r="A68" s="17" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B68" s="17" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C68" s="17" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D68" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E68" s="17" t="s">
+        <x:v>159</x:v>
+      </x:c>
     </x:row>
     <x:row r="69" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A69" s="13" t="s"/>
-      <x:c r="B69" s="13" t="s"/>
-      <x:c r="C69" s="17" t="s"/>
-      <x:c r="D69" s="17" t="s"/>
-      <x:c r="E69" s="17" t="s"/>
+      <x:c r="A69" s="13" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B69" s="13" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C69" s="17" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D69" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E69" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="70" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A70" s="17" t="s"/>
-      <x:c r="B70" s="17" t="s"/>
-      <x:c r="C70" s="17" t="s"/>
-      <x:c r="D70" s="17" t="s"/>
-      <x:c r="E70" s="17" t="s"/>
+      <x:c r="A70" s="17" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B70" s="17" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C70" s="17" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D70" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E70" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="71" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A71" s="13" t="s"/>
-      <x:c r="B71" s="13" t="s"/>
-      <x:c r="C71" s="17" t="s"/>
-      <x:c r="D71" s="17" t="s"/>
-      <x:c r="E71" s="17" t="s"/>
+      <x:c r="A71" s="13" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B71" s="13" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C71" s="17" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D71" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E71" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="72" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A72" s="17" t="s"/>
-      <x:c r="B72" s="17" t="s"/>
-      <x:c r="C72" s="17" t="s"/>
-      <x:c r="D72" s="17" t="s"/>
-      <x:c r="E72" s="17" t="s"/>
+      <x:c r="A72" s="17" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B72" s="17" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C72" s="17" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D72" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E72" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="73" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A73" s="13" t="s"/>
-      <x:c r="B73" s="13" t="s"/>
-      <x:c r="C73" s="17" t="s"/>
-      <x:c r="D73" s="17" t="s"/>
-      <x:c r="E73" s="17" t="s"/>
+      <x:c r="A73" s="13" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B73" s="13" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C73" s="17" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D73" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E73" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="74" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A74" s="17" t="s"/>
-      <x:c r="B74" s="17" t="s"/>
-      <x:c r="C74" s="17" t="s"/>
-      <x:c r="D74" s="17" t="s"/>
-      <x:c r="E74" s="17" t="s"/>
+      <x:c r="A74" s="17" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B74" s="17" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C74" s="17" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D74" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E74" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="75" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A75" s="13" t="s"/>
-      <x:c r="B75" s="13" t="s"/>
-      <x:c r="C75" s="17" t="s"/>
-      <x:c r="D75" s="17" t="s"/>
-      <x:c r="E75" s="17" t="s"/>
+      <x:c r="A75" s="13" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B75" s="13" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C75" s="17" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D75" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E75" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="76" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A76" s="17" t="s"/>
-      <x:c r="B76" s="17" t="s"/>
-      <x:c r="C76" s="17" t="s"/>
-      <x:c r="D76" s="17" t="s"/>
-      <x:c r="E76" s="17" t="s"/>
+      <x:c r="A76" s="17" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B76" s="17" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C76" s="17" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D76" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E76" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="77" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A77" s="13" t="s"/>
-      <x:c r="B77" s="13" t="s"/>
-      <x:c r="C77" s="17" t="s"/>
-      <x:c r="D77" s="17" t="s"/>
-      <x:c r="E77" s="17" t="s"/>
+      <x:c r="A77" s="13" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B77" s="13" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C77" s="17" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D77" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E77" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="78" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A78" s="17" t="s"/>
-      <x:c r="B78" s="17" t="s"/>
-      <x:c r="C78" s="17" t="s"/>
-      <x:c r="D78" s="17" t="s"/>
-      <x:c r="E78" s="17" t="s"/>
+      <x:c r="A78" s="17" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B78" s="17" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C78" s="17" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D78" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E78" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="79" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A79" s="13" t="s"/>
-      <x:c r="B79" s="13" t="s"/>
-      <x:c r="C79" s="17" t="s"/>
-      <x:c r="D79" s="17" t="s"/>
-      <x:c r="E79" s="17" t="s"/>
+      <x:c r="A79" s="13" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B79" s="13" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C79" s="17" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D79" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E79" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="80" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A80" s="17" t="s"/>
-      <x:c r="B80" s="17" t="s"/>
-      <x:c r="C80" s="17" t="s"/>
-      <x:c r="D80" s="17" t="s"/>
-      <x:c r="E80" s="17" t="s"/>
+      <x:c r="A80" s="17" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B80" s="17" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C80" s="17" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D80" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E80" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="81" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A81" s="13" t="s"/>
-      <x:c r="B81" s="13" t="s"/>
-      <x:c r="C81" s="17" t="s"/>
-      <x:c r="D81" s="17" t="s"/>
-      <x:c r="E81" s="17" t="s"/>
+      <x:c r="A81" s="13" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B81" s="13" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C81" s="17" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D81" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E81" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="82" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A82" s="17" t="s"/>
-      <x:c r="B82" s="17" t="s"/>
-      <x:c r="C82" s="17" t="s"/>
-      <x:c r="D82" s="17" t="s"/>
-      <x:c r="E82" s="17" t="s"/>
+      <x:c r="A82" s="17" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B82" s="17" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C82" s="17" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D82" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E82" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="83" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A83" s="13" t="s"/>
-      <x:c r="B83" s="13" t="s"/>
-      <x:c r="C83" s="17" t="s"/>
-      <x:c r="D83" s="17" t="s"/>
-      <x:c r="E83" s="17" t="s"/>
+      <x:c r="A83" s="13" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B83" s="13" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C83" s="17" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D83" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E83" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="84" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A84" s="17" t="s"/>
-      <x:c r="B84" s="17" t="s"/>
-      <x:c r="C84" s="17" t="s"/>
-      <x:c r="D84" s="17" t="s"/>
-      <x:c r="E84" s="17" t="s"/>
+      <x:c r="A84" s="17" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B84" s="17" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C84" s="17" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D84" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E84" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="85" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A85" s="13" t="s"/>
-      <x:c r="B85" s="13" t="s"/>
-      <x:c r="C85" s="17" t="s"/>
-      <x:c r="D85" s="17" t="s"/>
-      <x:c r="E85" s="17" t="s"/>
+      <x:c r="A85" s="13" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B85" s="13" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C85" s="17" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D85" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E85" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="86" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A86" s="17" t="s"/>
-      <x:c r="B86" s="17" t="s"/>
-      <x:c r="C86" s="17" t="s"/>
-      <x:c r="D86" s="17" t="s"/>
-      <x:c r="E86" s="17" t="s"/>
+      <x:c r="A86" s="17" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B86" s="17" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C86" s="17" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D86" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E86" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="87" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A87" s="13" t="s"/>
-      <x:c r="B87" s="13" t="s"/>
-      <x:c r="C87" s="17" t="s"/>
-      <x:c r="D87" s="17" t="s"/>
-      <x:c r="E87" s="17" t="s"/>
+      <x:c r="A87" s="13" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B87" s="13" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C87" s="17" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D87" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E87" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="88" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A88" s="17" t="s"/>
-      <x:c r="B88" s="17" t="s"/>
-      <x:c r="C88" s="17" t="s"/>
-      <x:c r="D88" s="17" t="s"/>
-      <x:c r="E88" s="17" t="s"/>
+      <x:c r="A88" s="17" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B88" s="17" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C88" s="17" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D88" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E88" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="89" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A89" s="13" t="s"/>
-      <x:c r="B89" s="13" t="s"/>
-      <x:c r="C89" s="17" t="s"/>
-      <x:c r="D89" s="17" t="s"/>
-      <x:c r="E89" s="17" t="s"/>
+      <x:c r="A89" s="13" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B89" s="13" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C89" s="17" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D89" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E89" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="90" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A90" s="17" t="s"/>
-      <x:c r="B90" s="17" t="s"/>
-      <x:c r="C90" s="17" t="s"/>
-      <x:c r="D90" s="17" t="s"/>
-      <x:c r="E90" s="17" t="s"/>
+      <x:c r="A90" s="17" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B90" s="17" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C90" s="17" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D90" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E90" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="91" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A91" s="13" t="s"/>
-      <x:c r="B91" s="13" t="s"/>
-      <x:c r="C91" s="17" t="s"/>
-      <x:c r="D91" s="17" t="s"/>
-      <x:c r="E91" s="17" t="s"/>
+      <x:c r="A91" s="13" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B91" s="13" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C91" s="17" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="D91" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E91" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="92" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A92" s="17" t="s"/>
-      <x:c r="B92" s="17" t="s"/>
-      <x:c r="C92" s="17" t="s"/>
-      <x:c r="D92" s="17" t="s"/>
-      <x:c r="E92" s="17" t="s"/>
+      <x:c r="A92" s="17" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B92" s="17" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C92" s="17" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D92" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E92" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="93" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A93" s="13" t="s"/>
-      <x:c r="B93" s="13" t="s"/>
-      <x:c r="C93" s="17" t="s"/>
-      <x:c r="D93" s="17" t="s"/>
-      <x:c r="E93" s="17" t="s"/>
+      <x:c r="A93" s="13" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B93" s="13" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C93" s="17" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="D93" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E93" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A94" s="13" t="s"/>
-      <x:c r="B94" s="13" t="s"/>
-      <x:c r="C94" s="17" t="s"/>
-      <x:c r="D94" s="17" t="s"/>
-      <x:c r="E94" s="17" t="s"/>
+      <x:c r="A94" s="13" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B94" s="13" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C94" s="17" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="D94" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E94" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A95" s="13" t="s"/>
-      <x:c r="B95" s="13" t="s"/>
-      <x:c r="C95" s="17" t="s"/>
-      <x:c r="D95" s="17" t="s"/>
-      <x:c r="E95" s="17" t="s"/>
+      <x:c r="A95" s="13" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B95" s="13" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C95" s="17" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D95" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E95" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A96" s="13" t="s"/>
-      <x:c r="B96" s="13" t="s"/>
-      <x:c r="C96" s="17" t="s"/>
-      <x:c r="D96" s="17" t="s"/>
-      <x:c r="E96" s="17" t="s"/>
+      <x:c r="A96" s="13" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B96" s="13" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C96" s="17" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D96" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E96" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A97" s="13" t="s"/>
-      <x:c r="B97" s="13" t="s"/>
-      <x:c r="C97" s="17" t="s"/>
-      <x:c r="D97" s="17" t="s"/>
-      <x:c r="E97" s="17" t="s"/>
+      <x:c r="A97" s="13" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B97" s="13" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C97" s="17" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="D97" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E97" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A98" s="13" t="s"/>
-      <x:c r="B98" s="13" t="s"/>
-      <x:c r="C98" s="17" t="s"/>
-      <x:c r="D98" s="17" t="s"/>
-      <x:c r="E98" s="17" t="s"/>
+      <x:c r="A98" s="13" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B98" s="13" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C98" s="17" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D98" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E98" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A99" s="13" t="s"/>
-      <x:c r="B99" s="13" t="s"/>
-      <x:c r="C99" s="17" t="s"/>
-      <x:c r="D99" s="17" t="s"/>
-      <x:c r="E99" s="17" t="s"/>
+      <x:c r="A99" s="13" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="B99" s="13" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C99" s="17" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="D99" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E99" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A100" s="13" t="s"/>
-      <x:c r="B100" s="13" t="s"/>
-      <x:c r="C100" s="17" t="s"/>
-      <x:c r="D100" s="17" t="s"/>
-      <x:c r="E100" s="17" t="s"/>
+      <x:c r="A100" s="13" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B100" s="13" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C100" s="17" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="D100" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E100" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A101" s="13" t="s"/>
-      <x:c r="B101" s="13" t="s"/>
-      <x:c r="C101" s="17" t="s"/>
-      <x:c r="D101" s="17" t="s"/>
-      <x:c r="E101" s="17" t="s"/>
+      <x:c r="A101" s="13" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B101" s="13" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C101" s="17" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="D101" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E101" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A102" s="13" t="s"/>
-      <x:c r="B102" s="13" t="s"/>
-      <x:c r="C102" s="17" t="s"/>
-      <x:c r="D102" s="17" t="s"/>
-      <x:c r="E102" s="17" t="s"/>
+      <x:c r="A102" s="13" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B102" s="13" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C102" s="17" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="D102" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E102" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A103" s="13" t="s"/>
-      <x:c r="B103" s="13" t="s"/>
-      <x:c r="C103" s="17" t="s"/>
-      <x:c r="D103" s="17" t="s"/>
-      <x:c r="E103" s="17" t="s"/>
+      <x:c r="A103" s="13" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B103" s="13" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="C103" s="17" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="D103" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E103" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A104" s="13" t="s"/>
-      <x:c r="B104" s="13" t="s"/>
-      <x:c r="C104" s="17" t="s"/>
-      <x:c r="D104" s="17" t="s"/>
-      <x:c r="E104" s="17" t="s"/>
+      <x:c r="A104" s="13" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B104" s="13" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C104" s="17" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="D104" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E104" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A105" s="13" t="s"/>
-      <x:c r="B105" s="13" t="s"/>
-      <x:c r="C105" s="17" t="s"/>
-      <x:c r="D105" s="17" t="s"/>
-      <x:c r="E105" s="17" t="s"/>
+      <x:c r="A105" s="13" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B105" s="13" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="C105" s="17" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="D105" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E105" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A106" s="13" t="s"/>
-      <x:c r="B106" s="13" t="s"/>
-      <x:c r="C106" s="17" t="s"/>
-      <x:c r="D106" s="17" t="s"/>
-      <x:c r="E106" s="17" t="s"/>
+      <x:c r="A106" s="13" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B106" s="13" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C106" s="17" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D106" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E106" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A107" s="13" t="s"/>
-      <x:c r="B107" s="13" t="s"/>
-      <x:c r="C107" s="17" t="s"/>
-      <x:c r="D107" s="17" t="s"/>
-      <x:c r="E107" s="17" t="s"/>
+      <x:c r="A107" s="13" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B107" s="13" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C107" s="17" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="D107" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E107" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A108" s="13" t="s"/>
-      <x:c r="B108" s="13" t="s"/>
-      <x:c r="C108" s="17" t="s"/>
-      <x:c r="D108" s="17" t="s"/>
-      <x:c r="E108" s="17" t="s"/>
+      <x:c r="A108" s="13" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="B108" s="13" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="C108" s="17" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D108" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E108" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A109" s="13" t="s"/>
-      <x:c r="B109" s="13" t="s"/>
-      <x:c r="C109" s="17" t="s"/>
-      <x:c r="D109" s="17" t="s"/>
-      <x:c r="E109" s="17" t="s"/>
+      <x:c r="A109" s="13" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B109" s="13" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="C109" s="17" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="D109" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E109" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A110" s="13" t="s"/>
-      <x:c r="B110" s="13" t="s"/>
-      <x:c r="C110" s="17" t="s"/>
-      <x:c r="D110" s="17" t="s"/>
-      <x:c r="E110" s="17" t="s"/>
+      <x:c r="A110" s="13" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B110" s="13" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="C110" s="17" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="D110" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E110" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A111" s="13" t="s"/>
-      <x:c r="B111" s="13" t="s"/>
-      <x:c r="C111" s="17" t="s"/>
-      <x:c r="D111" s="17" t="s"/>
-      <x:c r="E111" s="17" t="s"/>
+      <x:c r="A111" s="13" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B111" s="13" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C111" s="17" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="D111" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E111" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A112" s="13" t="s"/>
-      <x:c r="B112" s="13" t="s"/>
-      <x:c r="C112" s="17" t="s"/>
-      <x:c r="D112" s="17" t="s"/>
-      <x:c r="E112" s="17" t="s"/>
+      <x:c r="A112" s="13" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B112" s="13" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="C112" s="17" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="D112" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E112" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A113" s="13" t="s"/>
-      <x:c r="B113" s="13" t="s"/>
-      <x:c r="C113" s="17" t="s"/>
-      <x:c r="D113" s="17" t="s"/>
-      <x:c r="E113" s="17" t="s"/>
+      <x:c r="A113" s="13" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="B113" s="13" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C113" s="17" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="D113" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E113" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A114" s="13" t="s"/>
-      <x:c r="B114" s="13" t="s"/>
-      <x:c r="C114" s="17" t="s"/>
-      <x:c r="D114" s="17" t="s"/>
-      <x:c r="E114" s="17" t="s"/>
+      <x:c r="A114" s="13" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B114" s="13" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C114" s="17" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="D114" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E114" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A115" s="13" t="s"/>
-      <x:c r="B115" s="13" t="s"/>
-      <x:c r="C115" s="17" t="s"/>
-      <x:c r="D115" s="17" t="s"/>
-      <x:c r="E115" s="17" t="s"/>
+      <x:c r="A115" s="13" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B115" s="13" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C115" s="17" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="D115" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E115" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A116" s="13" t="s"/>
-      <x:c r="B116" s="13" t="s"/>
-      <x:c r="C116" s="17" t="s"/>
-      <x:c r="D116" s="17" t="s"/>
-      <x:c r="E116" s="17" t="s"/>
+      <x:c r="A116" s="13" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B116" s="13" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C116" s="17" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="D116" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E116" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A117" s="13" t="s"/>
-      <x:c r="B117" s="13" t="s"/>
-      <x:c r="C117" s="17" t="s"/>
-      <x:c r="D117" s="17" t="s"/>
-      <x:c r="E117" s="17" t="s"/>
+      <x:c r="A117" s="13" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="B117" s="13" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C117" s="17" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="D117" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E117" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A118" s="13" t="s"/>
-      <x:c r="B118" s="13" t="s"/>
-      <x:c r="C118" s="17" t="s"/>
-      <x:c r="D118" s="17" t="s"/>
-      <x:c r="E118" s="17" t="s"/>
+      <x:c r="A118" s="13" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B118" s="13" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C118" s="17" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="D118" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E118" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A119" s="13" t="s"/>
-      <x:c r="B119" s="13" t="s"/>
-      <x:c r="C119" s="17" t="s"/>
-      <x:c r="D119" s="17" t="s"/>
-      <x:c r="E119" s="17" t="s"/>
+      <x:c r="A119" s="13" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B119" s="13" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C119" s="17" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="D119" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E119" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A120" s="13" t="s"/>
-      <x:c r="B120" s="13" t="s"/>
-      <x:c r="C120" s="17" t="s"/>
-      <x:c r="D120" s="17" t="s"/>
-      <x:c r="E120" s="17" t="s"/>
+      <x:c r="A120" s="13" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B120" s="13" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="C120" s="17" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="D120" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E120" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A121" s="13" t="s"/>
-      <x:c r="B121" s="13" t="s"/>
-      <x:c r="C121" s="17" t="s"/>
-      <x:c r="D121" s="17" t="s"/>
-      <x:c r="E121" s="17" t="s"/>
+      <x:c r="A121" s="13" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="B121" s="13" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="C121" s="17" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="D121" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E121" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A122" s="13" t="s"/>
-      <x:c r="B122" s="13" t="s"/>
-      <x:c r="C122" s="17" t="s"/>
-      <x:c r="D122" s="17" t="s"/>
-      <x:c r="E122" s="17" t="s"/>
+      <x:c r="A122" s="13" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="B122" s="13" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="C122" s="17" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="D122" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E122" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A123" s="13" t="s"/>
-      <x:c r="B123" s="13" t="s"/>
-      <x:c r="C123" s="17" t="s"/>
-      <x:c r="D123" s="17" t="s"/>
-      <x:c r="E123" s="17" t="s"/>
+      <x:c r="A123" s="13" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B123" s="13" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="C123" s="17" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="D123" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E123" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A124" s="13" t="s"/>
-      <x:c r="B124" s="13" t="s"/>
-      <x:c r="C124" s="17" t="s"/>
-      <x:c r="D124" s="17" t="s"/>
-      <x:c r="E124" s="17" t="s"/>
+      <x:c r="A124" s="13" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B124" s="13" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="C124" s="17" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="D124" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E124" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A125" s="13" t="s"/>
-      <x:c r="B125" s="13" t="s"/>
-      <x:c r="C125" s="17" t="s"/>
-      <x:c r="D125" s="17" t="s"/>
-      <x:c r="E125" s="17" t="s"/>
+      <x:c r="A125" s="13" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B125" s="13" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="C125" s="17" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="D125" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E125" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <x:c r="A126" s="13" t="s"/>
